--- a/pages/SuperSete/base.xlsx
+++ b/pages/SuperSete/base.xlsx
@@ -53050,6 +53050,376 @@
         <x:v/>
       </x:c>
     </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>710</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23/06/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$11.540,60</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$785,07</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$62,68</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7546</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.924.730,98</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$839.145,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>711</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>25/06/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$14.990,31</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.098,19</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>721</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$59,40</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6212</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.034.661,36</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$722.972,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.100.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>712</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>27/06/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.092,95</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>712</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$59,86</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7216</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.173.907,42</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$731.327,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.300.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>713</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>30/06/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$978,70</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$66,97</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6918</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.330.570,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$809.090,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.400.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>714</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>02/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$15.935,09</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.264,68</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>782</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$58,22</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7121</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.447.428,16</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$774.447,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.500.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="2" type="noConversion"/>
   <x:pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -53238,7 +53608,7 @@
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-06-23T04:05:49+00:00</AtualizadoPeloTimerJobEm>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-03T04:02:59+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
 </file>

--- a/pages/SuperSete/base.xlsx
+++ b/pages/SuperSete/base.xlsx
@@ -53420,6 +53420,80 @@
         <x:v/>
       </x:c>
     </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>715</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>04/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$18.629,38</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$749,67</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>928</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$57,35</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8048</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.584.048,03</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$902.227,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.700.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="2" type="noConversion"/>
   <x:pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -53608,7 +53682,7 @@
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-03T04:02:59+00:00</AtualizadoPeloTimerJobEm>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-06T04:02:55+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
 </file>

--- a/pages/SuperSete/base.xlsx
+++ b/pages/SuperSete/base.xlsx
@@ -53494,6 +53494,524 @@
         <x:v/>
       </x:c>
     </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>07/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$19.777,06</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$991,33</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>930</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$60,75</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8153</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.729.085,71</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$953.347,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.800.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>09/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$7.835,78</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$995,01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>705</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$63,51</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6912</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.844.011,57</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$760.597,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$3.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>11/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$18.335,99</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.343,29</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>819</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$63,96</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7547</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.978.479,37</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$883.745,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$3.200.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>719</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>14/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$618,95</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1161</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$48,51</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9351</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$3.162.479,65</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$964.277,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$3.300.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>720</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$11.974,26</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.140,40</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>690</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$74,37</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7825</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$3.294.198,75</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$870.625,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$3.400.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>721</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>18/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$39.381,61</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.442,54</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>920</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$61,15</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>8364</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$3.438.599,29</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$952.005,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$3.500.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>722</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>21/07/2025</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$961,63</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>983</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$61,63</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>9189</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$3.636.505,24</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.027.250,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$3.700.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="2" type="noConversion"/>
   <x:pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -53682,7 +54200,7 @@
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-06T04:02:55+00:00</AtualizadoPeloTimerJobEm>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-07-23T04:01:23+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
 </file>
